--- a/FabLab_oil_and_gas/Equations_of_state/solution/mix.xlsx
+++ b/FabLab_oil_and_gas/Equations_of_state/solution/mix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Ucheba\Poly_3_kurs\3_Kurs_MexMatMod\FabLab_oil_and_gas\Equations_of_state\solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF2C942-3E87-437D-8A39-FF97F15F7C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914BB4C1-C316-4EDA-A37C-830AAEF70292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9600" yWindow="2436" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
